--- a/Project7/chemical_shifts.xlsx
+++ b/Project7/chemical_shifts.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Process_Engineering/MMfP/Project7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4BDA8-C166-CF48-A6A2-B344D89C0C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0D675-E364-354C-BAE9-1FE7824A1B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{E18F7E3E-3082-DA42-A53E-F264702B6DA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$13:$H$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$U$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>TMS</t>
   </si>
@@ -82,14 +87,20 @@
     <t>8H</t>
   </si>
   <si>
-    <t>𝛿=𝜎_𝑖𝑠𝑜 (𝑟𝑒𝑓)−𝜎_𝑖𝑠𝑜</t>
+    <t>𝛿</t>
+  </si>
+  <si>
+    <t>B3LYP/6-31+g(d,p)</t>
+  </si>
+  <si>
+    <t>B3PW91/cc-pVTZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,16 +127,54 @@
       <name val="Cambria Math"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -133,14 +182,391 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="mediumDashDot">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,11 +589,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>207010</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13970</xdr:rowOff>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2337628" cy="462627"/>
+    <xdr:ext cx="2629566" cy="520399"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -183,8 +609,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12734290" y="2716530"/>
-              <a:ext cx="2337628" cy="462627"/>
+              <a:off x="11870690" y="1548130"/>
+              <a:ext cx="2629566" cy="520399"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -211,6 +637,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -220,14 +647,14 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1600" i="1">
+                          <a:rPr lang="en-US" sz="1800" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1600" i="1">
+                          <a:rPr lang="en-US" sz="1800" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -236,7 +663,7 @@
                       </m:e>
                       <m:sub>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑖𝑠𝑜</m:t>
@@ -244,7 +671,7 @@
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                      <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>=</m:t>
@@ -252,14 +679,14 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>1</m:t>
@@ -267,7 +694,7 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>3</m:t>
@@ -277,7 +704,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -286,14 +713,14 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -302,7 +729,7 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝑥𝑥</m:t>
@@ -310,7 +737,7 @@
                           </m:sub>
                         </m:sSub>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>+</m:t>
@@ -318,14 +745,14 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -334,7 +761,7 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -343,7 +770,7 @@
                           </m:sub>
                         </m:sSub>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>+</m:t>
@@ -351,14 +778,14 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -367,7 +794,7 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -380,7 +807,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1600"/>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -399,8 +826,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12734290" y="2716530"/>
-              <a:ext cx="2337628" cy="462627"/>
+              <a:off x="11870690" y="1548130"/>
+              <a:ext cx="2629566" cy="520399"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -427,53 +854,54 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" i="0">
+                <a:rPr lang="en-US" sz="1800" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜎_</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑖𝑠𝑜=1/3 (</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜎_</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑥𝑥+</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜎_𝑦𝑦</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜎_𝑧𝑧 )</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1600"/>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -484,11 +912,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>411878</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12052</xdr:rowOff>
+      <xdr:colOff>279798</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>235572</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1236364" cy="563167"/>
+    <xdr:ext cx="1390573" cy="633571"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -504,8 +932,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12939158" y="1739252"/>
-              <a:ext cx="1236364" cy="563167"/>
+              <a:off x="12136518" y="489572"/>
+              <a:ext cx="1390573" cy="633571"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -532,6 +960,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -541,14 +970,14 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1600" i="1">
+                          <a:rPr lang="en-US" sz="1800" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="en-US" sz="1600" i="1">
+                          <a:rPr lang="en-US" sz="1800" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -557,7 +986,7 @@
                       </m:e>
                       <m:sub>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝑥𝑦</m:t>
@@ -565,7 +994,7 @@
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                      <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>=</m:t>
@@ -573,7 +1002,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -582,14 +1011,14 @@
                         <m:sSup>
                           <m:sSupPr>
                             <m:ctrlPr>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSupPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝜕</m:t>
@@ -597,7 +1026,7 @@
                           </m:e>
                           <m:sup>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>2</m:t>
@@ -605,7 +1034,7 @@
                           </m:sup>
                         </m:sSup>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝐸</m:t>
@@ -613,7 +1042,7 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝜕</m:t>
@@ -621,14 +1050,14 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝐵</m:t>
@@ -636,7 +1065,7 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝑥</m:t>
@@ -644,7 +1073,7 @@
                           </m:sub>
                         </m:sSub>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝜕</m:t>
@@ -652,14 +1081,14 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝐼</m:t>
@@ -667,7 +1096,7 @@
                           </m:e>
                           <m:sub>
                             <m:r>
-                              <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                              <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>𝑦</m:t>
@@ -679,7 +1108,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1600"/>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -698,8 +1127,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12939158" y="1739252"/>
-              <a:ext cx="1236364" cy="563167"/>
+              <a:off x="12136518" y="489572"/>
+              <a:ext cx="1390573" cy="633571"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -726,20 +1155,21 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" i="0">
+                <a:rPr lang="en-US" sz="1800" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜎_</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑥𝑦=(𝜕^2 𝐸)/(𝜕𝐵_𝑥 𝜕𝐼_𝑦 )</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1600"/>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -750,11 +1180,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>299720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>248920</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1818959" cy="252826"/>
+    <xdr:ext cx="2046266" cy="284373"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -770,8 +1200,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12827000" y="1122680"/>
-              <a:ext cx="1818959" cy="252826"/>
+              <a:off x="12014200" y="2545080"/>
+              <a:ext cx="2046266" cy="284373"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -798,6 +1228,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -805,14 +1236,14 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-US" sz="1600" i="1">
+                      <a:rPr lang="en-US" sz="1800" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝛿</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                      <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
@@ -821,7 +1252,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -829,7 +1260,7 @@
                       </m:sSubPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -838,7 +1269,7 @@
                       </m:e>
                       <m:sub>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -849,7 +1280,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -857,7 +1288,7 @@
                       </m:dPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -866,7 +1297,7 @@
                       </m:e>
                     </m:d>
                     <m:r>
-                      <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                      <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
@@ -875,7 +1306,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -883,7 +1314,7 @@
                       </m:sSubPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -892,7 +1323,7 @@
                       </m:e>
                       <m:sub>
                         <m:r>
-                          <a:rPr lang="it-IT" sz="1600" b="0" i="1">
+                          <a:rPr lang="it-IT" sz="1800" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -903,7 +1334,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1600"/>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -922,8 +1353,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12827000" y="1122680"/>
-              <a:ext cx="1818959" cy="252826"/>
+              <a:off x="12014200" y="2545080"/>
+              <a:ext cx="2046266" cy="284373"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -950,21 +1381,22 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
-                <a:rPr lang="en-US" sz="1600" i="0">
+                <a:rPr lang="en-US" sz="1800" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝛿</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="it-IT" sz="1600" b="0" i="0">
+                <a:rPr lang="it-IT" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>=𝜎_𝑖𝑠𝑜 (𝑟𝑒𝑓)−𝜎_𝑖𝑠𝑜</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1600"/>
+              <a:endParaRPr lang="en-US" sz="1800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -972,6 +1404,718 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733068</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE9797C-3C07-AF34-0BC5-A4E1F7F357AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="389466" y="3877733"/>
+          <a:ext cx="3662535" cy="3589866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1064400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B337F7F-4916-25CF-93EB-034C9F15BF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5213067" y="3892266"/>
+          <a:ext cx="3953950" cy="3524534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711201</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Curved Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3BA046-4E46-A1B2-F1F3-C3EEA0316B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-905933" y="4055532"/>
+          <a:ext cx="2912533" cy="321734"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -581"/>
+            <a:gd name="adj2" fmla="val 171052"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355601</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1064401</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Curved Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94095A50-B6F8-37CC-04EB-21EEF8691FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3758601" y="4200066"/>
+          <a:ext cx="2200133" cy="708800"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E358D2D-75C2-B083-A36A-BA4007531BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10126133" y="3708399"/>
+          <a:ext cx="5350934" cy="4334933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>H_NMR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111332</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>64007</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2237CE4-5F97-A073-5F4A-FEA466DB67DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10389865" y="4124531"/>
+          <a:ext cx="4931075" cy="3563201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406398</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>541865</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>220133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE71BB5B-955E-C04D-B448-F7C2CBF0721B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15663331" y="3505199"/>
+          <a:ext cx="5943601" cy="4572001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>C_NMR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>672534</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>318801</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA40E24B-4AB8-45CF-D388-14EF50891099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15929467" y="3928534"/>
+          <a:ext cx="5454401" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67732</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54076050-4121-425C-11A1-3C4F25CD5356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17187333" y="304800"/>
+          <a:ext cx="2285999" cy="2963332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>677334</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB9893C-ABED-C7B1-515D-34CF0307FEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20099867" y="1761067"/>
+          <a:ext cx="2472267" cy="795866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>data taken from:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://www.chemicalbook.com/SpectrumEN_64-19-7_MS.htm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>694268</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Curved Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B898C27F-6452-A773-2F4F-2C8823585999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="19659601" y="2158999"/>
+          <a:ext cx="440267" cy="1312333"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346BE0F8-AFB9-8DD6-6AC7-A3C99B33A2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19490267" y="1964267"/>
+          <a:ext cx="609600" cy="194733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1294,16 +2438,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8020C4-4199-4B4D-8E96-285348D7F512}">
   <dimension ref="A1:BK279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1369,19 +2514,21 @@
       <c r="BK1" s="1"/>
     </row>
     <row r="2" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1433,20 +2580,20 @@
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
     </row>
-    <row r="3" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+    <row r="3" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1498,40 +2645,40 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
     </row>
-    <row r="4" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="M4" s="24"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1583,40 +2730,40 @@
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
     </row>
-    <row r="5" spans="1:63" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:63" ht="22" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
+        <v>192.55850000000001</v>
+      </c>
+      <c r="D5" s="10">
         <v>31.6496</v>
       </c>
-      <c r="D5" s="1">
-        <v>192.55850000000001</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="12">
         <v>31.986799999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="13">
         <v>170.3134</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="13">
         <v>30.395900000000001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J5" s="13">
         <v>29.3657</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="13">
+        <v>29.3657</v>
+      </c>
+      <c r="L5" s="14">
         <v>25.722300000000001</v>
       </c>
-      <c r="M5" s="1">
-        <v>25.722300000000001</v>
-      </c>
+      <c r="M5" s="24"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1668,40 +2815,40 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
     </row>
-    <row r="6" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+    <row r="6" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1">
-        <f>$D$5-H5</f>
+      <c r="G6" s="16">
+        <f>$C$5-G5</f>
         <v>160.57170000000002</v>
       </c>
-      <c r="I6" s="1">
-        <f>$D$5-I5</f>
+      <c r="H6" s="17">
+        <f>$C$5-H5</f>
         <v>22.245100000000008</v>
       </c>
-      <c r="J6" s="1">
-        <f>$C$5-J5</f>
+      <c r="I6" s="17">
+        <f>$D$5-I5</f>
         <v>1.2536999999999985</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6:M6" si="0">$C$5-K5</f>
+      <c r="J6" s="17">
+        <f>$D$5-J5</f>
         <v>2.2838999999999992</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
+      <c r="K6" s="17">
+        <f>$D$5-K5</f>
+        <v>2.2838999999999992</v>
+      </c>
+      <c r="L6" s="18">
+        <f>$D$5-L5</f>
         <v>5.9272999999999989</v>
       </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>5.9272999999999989</v>
-      </c>
+      <c r="M6" s="24"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1753,20 +2900,20 @@
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
     </row>
-    <row r="7" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+    <row r="7" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1818,7 +2965,7 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
     </row>
-    <row r="8" spans="1:63" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1884,19 +3031,21 @@
       <c r="BK8" s="1"/>
     </row>
     <row r="9" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1948,20 +3097,20 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
     </row>
-    <row r="10" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+    <row r="10" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2013,20 +3162,40 @@
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
     </row>
-    <row r="11" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+    <row r="11" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="24"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2078,20 +3247,40 @@
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
     </row>
-    <row r="12" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+    <row r="12" spans="1:63" ht="22" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32">
+        <v>187.31139999999999</v>
+      </c>
+      <c r="D12" s="33">
+        <v>31.631399999999999</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>17.9831</v>
+      </c>
+      <c r="H12" s="13">
+        <v>164.3623</v>
+      </c>
+      <c r="I12" s="13">
+        <v>30.2667</v>
+      </c>
+      <c r="J12" s="13">
+        <v>29.372</v>
+      </c>
+      <c r="K12" s="13">
+        <v>29.372</v>
+      </c>
+      <c r="L12" s="14">
+        <v>25.7606</v>
+      </c>
+      <c r="M12" s="24"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2143,20 +3332,40 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
     </row>
-    <row r="13" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+    <row r="13" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16">
+        <f>$C$12-G12</f>
+        <v>169.32829999999998</v>
+      </c>
+      <c r="H13" s="17">
+        <f>$C$12-H12</f>
+        <v>22.949099999999987</v>
+      </c>
+      <c r="I13" s="17">
+        <f>$D$12-I12</f>
+        <v>1.3646999999999991</v>
+      </c>
+      <c r="J13" s="17">
+        <f>$D$12-J12</f>
+        <v>2.2593999999999994</v>
+      </c>
+      <c r="K13" s="17">
+        <f>$D$12-K12</f>
+        <v>2.2593999999999994</v>
+      </c>
+      <c r="L13" s="18">
+        <f>$D$12-L12</f>
+        <v>5.8707999999999991</v>
+      </c>
+      <c r="M13" s="22"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2208,20 +3417,20 @@
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
     </row>
-    <row r="14" spans="1:63" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+    <row r="14" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -19499,6 +20708,10 @@
       <c r="BK279" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B9:L10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Project7/chemical_shifts.xlsx
+++ b/Project7/chemical_shifts.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardocabiati/Desktop/Cose_brutte_PoliMI/V_anno/II_semestre/Molecular_Modeling_for_Process_Engineering/MMfP/Project7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0D675-E364-354C-BAE9-1FE7824A1B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C86AD1-46D9-2442-859E-8CF915D272EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{E18F7E3E-3082-DA42-A53E-F264702B6DA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="chemical shifts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$13:$H$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$U$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -541,30 +536,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,8 +589,8 @@
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2629566" cy="520399"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -812,7 +807,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -917,8 +912,8 @@
       <xdr:rowOff>235572</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1390573" cy="633571"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1113,7 +1108,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1185,8 +1180,8 @@
       <xdr:rowOff>248920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2046266" cy="284373"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1339,7 +1334,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2515,19 +2510,19 @@
     </row>
     <row r="2" spans="1:63" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="20"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2582,17 +2577,17 @@
     </row>
     <row r="3" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="22"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -3252,14 +3247,14 @@
       <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <v>187.31139999999999</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <v>31.631399999999999</v>
       </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="12">
